--- a/MerchantOnboarding/src/main/resources/com/myspace/merchantonboarding/ceoIdBlackList.xlsx
+++ b/MerchantOnboarding/src/main/resources/com/myspace/merchantonboarding/ceoIdBlackList.xlsx
@@ -27,9 +27,6 @@
     <t>Import</t>
   </si>
   <si>
-    <t>RuleTable TaxIdBlackList</t>
-  </si>
-  <si>
     <t>NAME</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>mer.setCFcredibility($param);</t>
+  </si>
+  <si>
+    <t>RuleTable CEOICBlackList</t>
   </si>
 </sst>
 </file>
@@ -511,7 +511,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -535,64 +535,64 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
       </c>
       <c r="D8" s="1">
         <f>-1</f>
@@ -601,13 +601,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ref="D9:D27" si="0">-1</f>
@@ -616,13 +616,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
@@ -631,13 +631,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
@@ -646,13 +646,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
@@ -661,13 +661,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
@@ -676,13 +676,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
@@ -691,13 +691,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
@@ -706,13 +706,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
@@ -721,13 +721,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
@@ -736,13 +736,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
@@ -751,13 +751,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
@@ -766,13 +766,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
@@ -781,13 +781,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
@@ -796,13 +796,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
@@ -811,13 +811,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
@@ -826,13 +826,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
@@ -841,13 +841,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
@@ -856,13 +856,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
@@ -871,13 +871,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
